--- a/firebase_data_spyVOC.xlsx
+++ b/firebase_data_spyVOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E473"/>
+  <dimension ref="A1:E474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8473,11 +8473,28 @@
       <c r="B473" s="2" t="n">
         <v>45763.47916666666</v>
       </c>
-      <c r="C473" t="inlineStr"/>
+      <c r="C473" t="n">
+        <v>0</v>
+      </c>
       <c r="D473" t="n">
         <v>0</v>
       </c>
-      <c r="E473" t="inlineStr"/>
+      <c r="E473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" s="2" t="n">
+        <v>45764.47916666666</v>
+      </c>
+      <c r="C474" t="inlineStr"/>
+      <c r="D474" t="n">
+        <v>0</v>
+      </c>
+      <c r="E474" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyVOC.xlsx
+++ b/firebase_data_spyVOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E474"/>
+  <dimension ref="A1:E477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8490,11 +8490,62 @@
       <c r="B474" s="2" t="n">
         <v>45764.47916666666</v>
       </c>
-      <c r="C474" t="inlineStr"/>
+      <c r="C474" t="n">
+        <v>0</v>
+      </c>
       <c r="D474" t="n">
         <v>0</v>
       </c>
-      <c r="E474" t="inlineStr"/>
+      <c r="E474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" s="2" t="n">
+        <v>45768.47916666666</v>
+      </c>
+      <c r="C475" t="n">
+        <v>0</v>
+      </c>
+      <c r="D475" t="n">
+        <v>0</v>
+      </c>
+      <c r="E475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" s="2" t="n">
+        <v>45769.47916666666</v>
+      </c>
+      <c r="C476" t="n">
+        <v>1</v>
+      </c>
+      <c r="D476" t="n">
+        <v>0</v>
+      </c>
+      <c r="E476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" s="2" t="n">
+        <v>45770.47916666666</v>
+      </c>
+      <c r="C477" t="inlineStr"/>
+      <c r="D477" t="n">
+        <v>0</v>
+      </c>
+      <c r="E477" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyVOC.xlsx
+++ b/firebase_data_spyVOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E477"/>
+  <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8541,11 +8541,45 @@
       <c r="B477" s="2" t="n">
         <v>45770.47916666666</v>
       </c>
-      <c r="C477" t="inlineStr"/>
+      <c r="C477" t="n">
+        <v>0</v>
+      </c>
       <c r="D477" t="n">
         <v>0</v>
       </c>
-      <c r="E477" t="inlineStr"/>
+      <c r="E477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" s="2" t="n">
+        <v>45771.47916666666</v>
+      </c>
+      <c r="C478" t="n">
+        <v>1</v>
+      </c>
+      <c r="D478" t="n">
+        <v>0</v>
+      </c>
+      <c r="E478" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" s="2" t="n">
+        <v>45772.47916666666</v>
+      </c>
+      <c r="C479" t="inlineStr"/>
+      <c r="D479" t="n">
+        <v>0</v>
+      </c>
+      <c r="E479" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyVOC.xlsx
+++ b/firebase_data_spyVOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E479"/>
+  <dimension ref="A1:E482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8575,11 +8575,62 @@
       <c r="B479" s="2" t="n">
         <v>45772.47916666666</v>
       </c>
-      <c r="C479" t="inlineStr"/>
+      <c r="C479" t="n">
+        <v>1</v>
+      </c>
       <c r="D479" t="n">
         <v>0</v>
       </c>
-      <c r="E479" t="inlineStr"/>
+      <c r="E479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" s="2" t="n">
+        <v>45775.47916666666</v>
+      </c>
+      <c r="C480" t="n">
+        <v>0</v>
+      </c>
+      <c r="D480" t="n">
+        <v>1</v>
+      </c>
+      <c r="E480" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" s="2" t="n">
+        <v>45776.47916666666</v>
+      </c>
+      <c r="C481" t="n">
+        <v>1</v>
+      </c>
+      <c r="D481" t="n">
+        <v>1</v>
+      </c>
+      <c r="E481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" s="2" t="n">
+        <v>45777.47916666666</v>
+      </c>
+      <c r="C482" t="inlineStr"/>
+      <c r="D482" t="n">
+        <v>1</v>
+      </c>
+      <c r="E482" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyVOC.xlsx
+++ b/firebase_data_spyVOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E482"/>
+  <dimension ref="A1:E484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8626,11 +8626,45 @@
       <c r="B482" s="2" t="n">
         <v>45777.47916666666</v>
       </c>
-      <c r="C482" t="inlineStr"/>
+      <c r="C482" t="n">
+        <v>1</v>
+      </c>
       <c r="D482" t="n">
         <v>1</v>
       </c>
-      <c r="E482" t="inlineStr"/>
+      <c r="E482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" s="2" t="n">
+        <v>45778.47916666666</v>
+      </c>
+      <c r="C483" t="n">
+        <v>0</v>
+      </c>
+      <c r="D483" t="n">
+        <v>1</v>
+      </c>
+      <c r="E483" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" s="2" t="n">
+        <v>45779.47916666666</v>
+      </c>
+      <c r="C484" t="inlineStr"/>
+      <c r="D484" t="n">
+        <v>1</v>
+      </c>
+      <c r="E484" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyVOC.xlsx
+++ b/firebase_data_spyVOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E484"/>
+  <dimension ref="A1:E487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8660,11 +8660,62 @@
       <c r="B484" s="2" t="n">
         <v>45779.47916666666</v>
       </c>
-      <c r="C484" t="inlineStr"/>
+      <c r="C484" t="n">
+        <v>1</v>
+      </c>
       <c r="D484" t="n">
         <v>1</v>
       </c>
-      <c r="E484" t="inlineStr"/>
+      <c r="E484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" s="2" t="n">
+        <v>45782.47916666666</v>
+      </c>
+      <c r="C485" t="n">
+        <v>1</v>
+      </c>
+      <c r="D485" t="n">
+        <v>1</v>
+      </c>
+      <c r="E485" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" s="2" t="n">
+        <v>45783.47916666666</v>
+      </c>
+      <c r="C486" t="n">
+        <v>1</v>
+      </c>
+      <c r="D486" t="n">
+        <v>1</v>
+      </c>
+      <c r="E486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" s="2" t="n">
+        <v>45784.47916666666</v>
+      </c>
+      <c r="C487" t="inlineStr"/>
+      <c r="D487" t="n">
+        <v>1</v>
+      </c>
+      <c r="E487" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyVOC.xlsx
+++ b/firebase_data_spyVOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E487"/>
+  <dimension ref="A1:E489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8711,11 +8711,45 @@
       <c r="B487" s="2" t="n">
         <v>45784.47916666666</v>
       </c>
-      <c r="C487" t="inlineStr"/>
+      <c r="C487" t="n">
+        <v>1</v>
+      </c>
       <c r="D487" t="n">
         <v>1</v>
       </c>
-      <c r="E487" t="inlineStr"/>
+      <c r="E487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" s="2" t="n">
+        <v>45785.47916666666</v>
+      </c>
+      <c r="C488" t="n">
+        <v>0</v>
+      </c>
+      <c r="D488" t="n">
+        <v>1</v>
+      </c>
+      <c r="E488" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" s="2" t="n">
+        <v>45786.47916666666</v>
+      </c>
+      <c r="C489" t="inlineStr"/>
+      <c r="D489" t="n">
+        <v>1</v>
+      </c>
+      <c r="E489" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyVOC.xlsx
+++ b/firebase_data_spyVOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E489"/>
+  <dimension ref="A1:E491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8745,11 +8745,45 @@
       <c r="B489" s="2" t="n">
         <v>45786.47916666666</v>
       </c>
-      <c r="C489" t="inlineStr"/>
+      <c r="C489" t="n">
+        <v>0</v>
+      </c>
       <c r="D489" t="n">
         <v>1</v>
       </c>
-      <c r="E489" t="inlineStr"/>
+      <c r="E489" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" s="2" t="n">
+        <v>45789.47916666666</v>
+      </c>
+      <c r="C490" t="n">
+        <v>1</v>
+      </c>
+      <c r="D490" t="n">
+        <v>1</v>
+      </c>
+      <c r="E490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" s="2" t="n">
+        <v>45790.47916666666</v>
+      </c>
+      <c r="C491" t="inlineStr"/>
+      <c r="D491" t="n">
+        <v>1</v>
+      </c>
+      <c r="E491" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyVOC.xlsx
+++ b/firebase_data_spyVOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E493"/>
+  <dimension ref="A1:E494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8813,11 +8813,28 @@
       <c r="B493" s="2" t="n">
         <v>45792.47916666666</v>
       </c>
-      <c r="C493" t="inlineStr"/>
+      <c r="C493" t="n">
+        <v>1</v>
+      </c>
       <c r="D493" t="n">
         <v>1</v>
       </c>
-      <c r="E493" t="inlineStr"/>
+      <c r="E493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" s="2" t="n">
+        <v>45793.47916666666</v>
+      </c>
+      <c r="C494" t="inlineStr"/>
+      <c r="D494" t="n">
+        <v>0</v>
+      </c>
+      <c r="E494" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyVOC.xlsx
+++ b/firebase_data_spyVOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E496"/>
+  <dimension ref="A1:E497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8864,11 +8864,28 @@
       <c r="B496" s="2" t="n">
         <v>45797.47916666666</v>
       </c>
-      <c r="C496" t="inlineStr"/>
+      <c r="C496" t="n">
+        <v>0</v>
+      </c>
       <c r="D496" t="n">
         <v>1</v>
       </c>
-      <c r="E496" t="inlineStr"/>
+      <c r="E496" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" s="2" t="n">
+        <v>45798.47916666666</v>
+      </c>
+      <c r="C497" t="inlineStr"/>
+      <c r="D497" t="n">
+        <v>1</v>
+      </c>
+      <c r="E497" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyVOC.xlsx
+++ b/firebase_data_spyVOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E496"/>
+  <dimension ref="A1:E505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8864,11 +8864,164 @@
       <c r="B496" s="2" t="n">
         <v>45797.47916666666</v>
       </c>
-      <c r="C496" t="inlineStr"/>
+      <c r="C496" t="n">
+        <v>0</v>
+      </c>
       <c r="D496" t="n">
         <v>1</v>
       </c>
-      <c r="E496" t="inlineStr"/>
+      <c r="E496" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" s="2" t="n">
+        <v>45798.47916666666</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0</v>
+      </c>
+      <c r="D497" t="n">
+        <v>1</v>
+      </c>
+      <c r="E497" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" s="2" t="n">
+        <v>45799.47916666666</v>
+      </c>
+      <c r="C498" t="n">
+        <v>1</v>
+      </c>
+      <c r="D498" t="n">
+        <v>1</v>
+      </c>
+      <c r="E498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" s="2" t="n">
+        <v>45800.47916666666</v>
+      </c>
+      <c r="C499" t="n">
+        <v>1</v>
+      </c>
+      <c r="D499" t="n">
+        <v>0</v>
+      </c>
+      <c r="E499" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" s="2" t="n">
+        <v>45804.47916666666</v>
+      </c>
+      <c r="C500" t="n">
+        <v>1</v>
+      </c>
+      <c r="D500" t="n">
+        <v>0</v>
+      </c>
+      <c r="E500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" s="2" t="n">
+        <v>45805.47916666666</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0</v>
+      </c>
+      <c r="D501" t="n">
+        <v>1</v>
+      </c>
+      <c r="E501" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" s="2" t="n">
+        <v>45806.47916666666</v>
+      </c>
+      <c r="C502" t="n">
+        <v>0</v>
+      </c>
+      <c r="D502" t="n">
+        <v>1</v>
+      </c>
+      <c r="E502" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" s="2" t="n">
+        <v>45807.47916666666</v>
+      </c>
+      <c r="C503" t="n">
+        <v>1</v>
+      </c>
+      <c r="D503" t="n">
+        <v>1</v>
+      </c>
+      <c r="E503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" s="2" t="n">
+        <v>45810.47916666666</v>
+      </c>
+      <c r="C504" t="n">
+        <v>1</v>
+      </c>
+      <c r="D504" t="n">
+        <v>1</v>
+      </c>
+      <c r="E504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" s="2" t="n">
+        <v>45811.47916666666</v>
+      </c>
+      <c r="C505" t="inlineStr"/>
+      <c r="D505" t="n">
+        <v>1</v>
+      </c>
+      <c r="E505" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
